--- a/middleware/udp/udp-1000.xlsx
+++ b/middleware/udp/udp-1000.xlsx
@@ -420,5007 +420,5007 @@
         <f>AVERAGE(A3:A1002)</f>
       </c>
       <c r="B2" s="1">
-        <v>12284.134865</v>
+        <v>12379.091671999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>0.337677</v>
+        <v>0.36693400000000004</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>0.345452</v>
+        <v>0.292637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>0.338687</v>
+        <v>0.298933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>0.41439200000000004</v>
+        <v>0.286918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.26025400000000004</v>
+        <v>0.261097</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.228998</v>
+        <v>0.285059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>0.37234300000000004</v>
+        <v>0.29067699999999996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.28893199999999997</v>
+        <v>0.269105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>0.26792</v>
+        <v>0.25905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>0.35709</v>
+        <v>0.690257</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>0.289511</v>
+        <v>0.25643699999999997</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>0.323797</v>
+        <v>0.261772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>0.41356299999999996</v>
+        <v>0.24123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>0.308363</v>
+        <v>0.327248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>0.289507</v>
+        <v>0.253917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>0.305125</v>
+        <v>0.250124</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>0.30460600000000004</v>
+        <v>0.286702</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>0.317496</v>
+        <v>0.40463499999999997</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>0.318751</v>
+        <v>0.38197200000000003</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>0.24805999999999997</v>
+        <v>0.471877</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>0.160932</v>
+        <v>0.23811000000000002</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>0.49411</v>
+        <v>0.531689</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>0.31223999999999996</v>
+        <v>0.243168</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>0.328934</v>
+        <v>0.583796</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>0.298798</v>
+        <v>0.294176</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>0.36415200000000003</v>
+        <v>0.386802</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>0.32751399999999997</v>
+        <v>0.24742999999999998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>0.309031</v>
+        <v>0.318951</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>0.26262399999999997</v>
+        <v>0.292722</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>0.286024</v>
+        <v>0.351384</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>0.28509999999999996</v>
+        <v>0.537328</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>0.378826</v>
+        <v>0.21888</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>0.28444800000000003</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>0.289659</v>
+        <v>0.325736</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>0.348874</v>
+        <v>0.342378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>0.29054599999999997</v>
+        <v>0.299938</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
-        <v>0.317305</v>
+        <v>0.321238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>0.41791300000000003</v>
+        <v>0.480791</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
-        <v>0.335679</v>
+        <v>0.813657</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>0.380317</v>
+        <v>0.28771599999999997</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>0.21967899999999999</v>
+        <v>0.349267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>0.546913</v>
+        <v>0.261238</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>0.29616000000000003</v>
+        <v>0.38911</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>0.164822</v>
+        <v>0.327786</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>0.329594</v>
+        <v>0.335656</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>0.30126699999999995</v>
+        <v>0.28296</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>0.43183</v>
+        <v>0.262716</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>0.33994500000000005</v>
+        <v>0.316894</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>0.280953</v>
+        <v>0.293379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
-        <v>0.6192660000000001</v>
+        <v>0.34871</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
-        <v>0.426929</v>
+        <v>0.27785899999999997</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
-        <v>0.340538</v>
+        <v>0.26591</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1">
-        <v>0.38428300000000004</v>
+        <v>0.24739</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
-        <v>0.167487</v>
+        <v>0.304867</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
-        <v>0.318971</v>
+        <v>0.263486</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
-        <v>0.27296200000000004</v>
+        <v>0.307368</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
-        <v>0.360525</v>
+        <v>0.24994</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1">
-        <v>0.304621</v>
+        <v>0.271648</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1">
-        <v>0.307207</v>
+        <v>0.43908</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>0.345128</v>
+        <v>0.256597</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>0.346427</v>
+        <v>0.345726</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>0.34709999999999996</v>
+        <v>0.367609</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>0.293499</v>
+        <v>0.287212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>0.239624</v>
+        <v>0.26101</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>0.310974</v>
+        <v>0.333037</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>0.303834</v>
+        <v>0.22739</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>0.335054</v>
+        <v>0.335628</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>0.352397</v>
+        <v>0.30666200000000005</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>0.27147899999999997</v>
+        <v>0.31328999999999996</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>0.33746200000000004</v>
+        <v>0.282578</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>0.32735400000000003</v>
+        <v>0.282158</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>0.300533</v>
+        <v>0.178439</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>0.346203</v>
+        <v>0.22162199999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>0.3486</v>
+        <v>0.26084799999999997</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>0.29463999999999996</v>
+        <v>0.306068</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>0.32550100000000004</v>
+        <v>0.277979</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>0.293742</v>
+        <v>0.46906</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>0.2886</v>
+        <v>0.235453</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>0.307637</v>
+        <v>0.408381</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>0.301451</v>
+        <v>0.26594900000000005</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>0.313532</v>
+        <v>0.298462</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>0.293469</v>
+        <v>0.299826</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>0.27964500000000003</v>
+        <v>0.30097</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>0.30298499999999995</v>
+        <v>0.5593</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>0.301576</v>
+        <v>0.256597</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>0.31653600000000004</v>
+        <v>0.26669299999999996</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>0.33407</v>
+        <v>0.30839700000000003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>0.337282</v>
+        <v>0.256487</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>0.29894299999999996</v>
+        <v>0.303932</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>0.275941</v>
+        <v>0.289531</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>0.268447</v>
+        <v>0.563709</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>0.285949</v>
+        <v>0.261692</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>0.31406700000000004</v>
+        <v>0.24724300000000002</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>0.297837</v>
+        <v>0.271149</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>0.304423</v>
+        <v>0.256834</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>0.286906</v>
+        <v>0.23424</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>0.35802300000000004</v>
+        <v>0.28463700000000003</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>0.305936</v>
+        <v>0.317434</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>0.332494</v>
+        <v>0.285335</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>0.294391</v>
+        <v>0.287941</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>0.284632</v>
+        <v>0.262225</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>0.33740000000000003</v>
+        <v>0.22107600000000002</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>0.390923</v>
+        <v>0.269867</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>0.3054</v>
+        <v>0.272303</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>0.331899</v>
+        <v>0.299891</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>0.27221</v>
+        <v>0.270939</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>0.303771</v>
+        <v>0.31764899999999996</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>0.306068</v>
+        <v>0.30624500000000004</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>0.318032</v>
+        <v>0.29152</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>0.170268</v>
+        <v>0.28048599999999996</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>0.31798</v>
+        <v>0.27985899999999997</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>0.331691</v>
+        <v>0.331732</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>0.289541</v>
+        <v>0.263426</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>0.32695199999999996</v>
+        <v>0.288954</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>0.318535</v>
+        <v>0.268133</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>0.29068</v>
+        <v>0.23448</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>0.28159399999999996</v>
+        <v>0.265243</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>0.307455</v>
+        <v>0.306123</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>0.273023</v>
+        <v>0.266784</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>0.271597</v>
+        <v>0.303976</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>0.34781999999999996</v>
+        <v>0.296925</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>0.26108000000000003</v>
+        <v>0.33183300000000004</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>0.303386</v>
+        <v>0.336797</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>0.2967</v>
+        <v>0.28495000000000004</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>0.34214</v>
+        <v>0.34588</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>0.17579</v>
+        <v>0.267212</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>0.35401699999999997</v>
+        <v>0.28001000000000004</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>0.306195</v>
+        <v>0.253518</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>0.269995</v>
+        <v>0.28063699999999997</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>0.338243</v>
+        <v>0.257639</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>0.296507</v>
+        <v>0.262415</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>0.31488099999999997</v>
+        <v>0.33611399999999997</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>0.300046</v>
+        <v>0.28749199999999997</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>0.298469</v>
+        <v>0.288183</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>0.27806000000000003</v>
+        <v>0.250655</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>0.27488300000000004</v>
+        <v>0.305028</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>0.34751299999999996</v>
+        <v>0.250784</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>0.296328</v>
+        <v>0.260723</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>0.26715099999999997</v>
+        <v>0.33766599999999997</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>0.35462</v>
+        <v>0.24906999999999999</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>0.272839</v>
+        <v>0.299089</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>0.5792259999999999</v>
+        <v>0.34998199999999996</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>0.3011</v>
+        <v>0.30012700000000003</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>0.388312</v>
+        <v>0.283756</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>0.292319</v>
+        <v>0.283317</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>0.310505</v>
+        <v>0.29832200000000003</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>0.354103</v>
+        <v>0.358874</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>0.294703</v>
+        <v>0.237268</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>0.31467399999999995</v>
+        <v>0.286148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>0.289043</v>
+        <v>0.242092</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>0.329387</v>
+        <v>0.263573</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>0.34834299999999996</v>
+        <v>0.24724000000000002</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>0.296283</v>
+        <v>0.219738</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>0.283732</v>
+        <v>0.304002</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>0.28253399999999995</v>
+        <v>0.244136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>0.303651</v>
+        <v>0.240072</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>0.27399100000000004</v>
+        <v>0.27210599999999996</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>0.294071</v>
+        <v>0.455634</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>0.33399999999999996</v>
+        <v>0.32237200000000005</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>0.28018200000000004</v>
+        <v>0.319462</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>0.278322</v>
+        <v>0.235796</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>0.30078</v>
+        <v>0.34517899999999996</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>0.272426</v>
+        <v>0.293608</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>0.288906</v>
+        <v>0.328786</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>0.3375</v>
+        <v>0.223756</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>0.283225</v>
+        <v>0.295266</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>0.337043</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>0.304883</v>
+        <v>0.36386300000000005</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>0.29173699999999997</v>
+        <v>0.278848</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>0.31313</v>
+        <v>0.240322</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>0.385995</v>
+        <v>0.318012</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>0.30901700000000004</v>
+        <v>0.361632</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>0.40444599999999997</v>
+        <v>0.258542</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>0.302323</v>
+        <v>0.319474</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>0.307921</v>
+        <v>0.250289</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>0.279698</v>
+        <v>0.284814</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>0.28719</v>
+        <v>0.25836400000000004</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>0.345108</v>
+        <v>0.333386</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>0.35656499999999997</v>
+        <v>0.274272</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>0.292286</v>
+        <v>0.395983</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>0.29985199999999995</v>
+        <v>0.24209</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>0.29546</v>
+        <v>0.299209</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>0.291792</v>
+        <v>0.301984</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>0.387773</v>
+        <v>0.271906</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>0.232966</v>
+        <v>0.285554</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>0.32361</v>
+        <v>0.41981</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>0.305476</v>
+        <v>0.24255</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>0.41904</v>
+        <v>0.253262</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>0.277559</v>
+        <v>0.23946199999999998</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>0.309724</v>
+        <v>0.392796</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>0.27794599999999997</v>
+        <v>0.23398</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>0.296465</v>
+        <v>0.308697</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>0.321628</v>
+        <v>0.255578</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>0.299137</v>
+        <v>0.290929</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>0.27208899999999997</v>
+        <v>0.268826</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>0.36852599999999996</v>
+        <v>0.312603</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1">
-        <v>0.321614</v>
+        <v>0.25569600000000003</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1">
-        <v>0.277334</v>
+        <v>0.302196</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1">
-        <v>0.25518399999999997</v>
+        <v>0.22463999999999998</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1">
-        <v>0.310028</v>
+        <v>0.316237</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1">
-        <v>0.33030800000000005</v>
+        <v>0.23572</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1">
-        <v>0.294792</v>
+        <v>0.299757</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1">
-        <v>0.321348</v>
+        <v>0.25506999999999996</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1">
-        <v>0.31197400000000003</v>
+        <v>0.358352</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1">
-        <v>0.265049</v>
+        <v>0.259434</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1">
-        <v>0.24901600000000002</v>
+        <v>0.33131700000000003</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1">
-        <v>0.268654</v>
+        <v>0.366174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>0.270438</v>
+        <v>0.385343</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>0.304268</v>
+        <v>0.31206799999999996</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>0.299871</v>
+        <v>0.35277699999999995</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>0.200118</v>
+        <v>0.328917</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>0.39786699999999997</v>
+        <v>0.226274</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>0.7894840000000001</v>
+        <v>0.277802</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>0.21755400000000003</v>
+        <v>0.21665700000000002</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>0.32621100000000003</v>
+        <v>0.232234</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>0.38655</v>
+        <v>0.298109</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>0.332387</v>
+        <v>0.263582</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>0.285581</v>
+        <v>0.27899799999999997</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>0.323899</v>
+        <v>0.222258</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>0.290274</v>
+        <v>0.29700800000000005</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>0.33382</v>
+        <v>0.273273</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1">
-        <v>0.308829</v>
+        <v>0.306274</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>0.316644</v>
+        <v>0.32461</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>0.36384</v>
+        <v>0.273071</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>0.344819</v>
+        <v>0.451581</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>0.356955</v>
+        <v>0.258766</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>0.352787</v>
+        <v>0.30228299999999997</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>0.320283</v>
+        <v>0.25772</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1">
-        <v>0.295057</v>
+        <v>0.34236</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1">
-        <v>0.30110800000000004</v>
+        <v>0.30081800000000003</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>0.254556</v>
+        <v>0.299044</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>0.30381199999999997</v>
+        <v>0.234958</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>0.265098</v>
+        <v>0.24940500000000002</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>0.367477</v>
+        <v>0.393416</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>0.254592</v>
+        <v>0.29271199999999997</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>0.25947200000000004</v>
+        <v>0.193172</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>0.26538799999999996</v>
+        <v>0.45002</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>0.508891</v>
+        <v>0.335786</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>0.308194</v>
+        <v>0.276454</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>0.31984599999999996</v>
+        <v>0.18954200000000002</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>0.28094600000000003</v>
+        <v>0.23911000000000002</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>0.349076</v>
+        <v>0.251188</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>0.24968400000000002</v>
+        <v>0.172298</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>0.378801</v>
+        <v>0.6968960000000001</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>0.251214</v>
+        <v>0.244024</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>0.370882</v>
+        <v>0.31612300000000004</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>0.279598</v>
+        <v>0.242546</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>0.432752</v>
+        <v>0.321922</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>0.309948</v>
+        <v>0.306537</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>0.319931</v>
+        <v>0.33175</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>0.255212</v>
+        <v>0.281856</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>0.356483</v>
+        <v>0.296217</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>0.290132</v>
+        <v>0.211302</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>0.6356149999999999</v>
+        <v>0.306686</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>0.28693399999999997</v>
+        <v>0.307037</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1">
-        <v>0.35174</v>
+        <v>0.307163</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1">
-        <v>0.28561400000000003</v>
+        <v>0.317285</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1">
-        <v>0.33055</v>
+        <v>0.304471</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1">
-        <v>0.27539600000000003</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1">
-        <v>0.406351</v>
+        <v>0.287053</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1">
-        <v>0.291802</v>
+        <v>0.23491399999999998</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1">
-        <v>0.33385000000000004</v>
+        <v>0.436135</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1">
-        <v>0.313536</v>
+        <v>0.333909</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1">
-        <v>0.26282</v>
+        <v>0.226192</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1">
-        <v>0.43077000000000004</v>
+        <v>0.239922</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1">
-        <v>0.297948</v>
+        <v>0.353277</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1">
-        <v>0.24971</v>
+        <v>0.309912</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1">
-        <v>0.387903</v>
+        <v>0.297432</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1">
-        <v>0.269652</v>
+        <v>0.278102</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1">
-        <v>0.517212</v>
+        <v>0.267679</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>0.263798</v>
+        <v>0.294358</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1">
-        <v>0.39411999999999997</v>
+        <v>0.290684</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>0.30899699999999997</v>
+        <v>0.37535999999999997</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1">
-        <v>0.405868</v>
+        <v>0.384379</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1">
-        <v>0.342676</v>
+        <v>0.28855</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1">
-        <v>0.332923</v>
+        <v>0.370294</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1">
-        <v>0.29039400000000004</v>
+        <v>0.31318300000000004</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>0.349105</v>
+        <v>0.25546</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>0.314774</v>
+        <v>0.33642</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>0.38744300000000004</v>
+        <v>0.31944</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
-        <v>0.27074800000000004</v>
+        <v>0.290035</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>0.296841</v>
+        <v>0.258164</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>0.257698</v>
+        <v>0.443923</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>0.31939700000000004</v>
+        <v>0.252297</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>0.371037</v>
+        <v>0.310852</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1">
-        <v>0.367322</v>
+        <v>0.30713</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1">
-        <v>0.175795</v>
+        <v>0.35635300000000003</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1">
-        <v>0.358858</v>
+        <v>0.259957</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1">
-        <v>0.415257</v>
+        <v>0.360136</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1">
-        <v>0.31516</v>
+        <v>0.311666</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1">
-        <v>0.235052</v>
+        <v>0.42383699999999996</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1">
-        <v>0.342197</v>
+        <v>0.29834499999999997</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1">
-        <v>0.329237</v>
+        <v>0.371838</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1">
-        <v>0.311453</v>
+        <v>0.29389299999999996</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1">
-        <v>0.284754</v>
+        <v>0.39368200000000003</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1">
-        <v>0.32859499999999997</v>
+        <v>0.288346</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1">
-        <v>0.296637</v>
+        <v>0.300626</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1">
-        <v>0.34032</v>
+        <v>0.23529399999999998</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1">
-        <v>0.33518600000000004</v>
+        <v>0.21867</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1">
-        <v>0.278615</v>
+        <v>0.262218</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>0.318225</v>
+        <v>0.274099</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>0.30540599999999996</v>
+        <v>0.22945</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>0.46401800000000004</v>
+        <v>0.237989</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1">
-        <v>0.298855</v>
+        <v>0.29604600000000003</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>0.34718699999999997</v>
+        <v>0.183043</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>0.310193</v>
+        <v>0.709554</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1">
-        <v>0.5220119999999999</v>
+        <v>0.26901600000000003</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1">
-        <v>0.316349</v>
+        <v>0.166622</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1">
-        <v>0.343546</v>
+        <v>0.293246</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1">
-        <v>0.358604</v>
+        <v>0.32499100000000003</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1">
-        <v>0.32353299999999996</v>
+        <v>0.169932</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1">
-        <v>0.372257</v>
+        <v>0.27596400000000004</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1">
-        <v>0.297729</v>
+        <v>0.305434</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1">
-        <v>0.34020300000000003</v>
+        <v>0.25484999999999997</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1">
-        <v>0.297147</v>
+        <v>0.39627599999999996</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1">
-        <v>0.32885</v>
+        <v>0.8980480000000001</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1">
-        <v>0.30425800000000003</v>
+        <v>0.310826</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1">
-        <v>0.285451</v>
+        <v>0.283933</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1">
-        <v>0.297405</v>
+        <v>0.237116</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1">
-        <v>0.319151</v>
+        <v>0.438709</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1">
-        <v>0.301471</v>
+        <v>0.275743</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1">
-        <v>0.305362</v>
+        <v>1.208905</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1">
-        <v>0.269834</v>
+        <v>0.290894</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1">
-        <v>0.271231</v>
+        <v>0.332279</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1">
-        <v>0.286623</v>
+        <v>0.349158</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1">
-        <v>0.290149</v>
+        <v>0.25938300000000003</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1">
-        <v>0.319671</v>
+        <v>0.291128</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1">
-        <v>0.188381</v>
+        <v>0.277523</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1">
-        <v>0.296495</v>
+        <v>0.322666</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1">
-        <v>0.299414</v>
+        <v>0.288678</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
-        <v>0.298828</v>
+        <v>0.260693</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1">
-        <v>0.339033</v>
+        <v>0.351638</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1">
-        <v>0.338206</v>
+        <v>0.25903</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1">
-        <v>0.356304</v>
+        <v>0.296328</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1">
-        <v>0.2703</v>
+        <v>0.2685</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1">
-        <v>0.636989</v>
+        <v>0.26245799999999997</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1">
-        <v>0.35879500000000003</v>
+        <v>0.258886</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1">
-        <v>0.283847</v>
+        <v>0.367435</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1">
-        <v>0.256745</v>
+        <v>0.25626000000000004</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
-        <v>0.507043</v>
+        <v>0.28848399999999996</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1">
-        <v>0.37560499999999997</v>
+        <v>0.391243</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1">
-        <v>0.39274</v>
+        <v>0.230625</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1">
-        <v>0.251785</v>
+        <v>0.380536</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1">
-        <v>0.255653</v>
+        <v>0.26036899999999996</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1">
-        <v>0.327718</v>
+        <v>0.285229</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1">
-        <v>0.282834</v>
+        <v>0.36831</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1">
-        <v>0.295251</v>
+        <v>0.218493</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1">
-        <v>0.257768</v>
+        <v>0.295549</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1">
-        <v>0.321093</v>
+        <v>0.280023</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1">
-        <v>0.30327499999999996</v>
+        <v>0.286811</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1">
-        <v>0.326911</v>
+        <v>0.24477499999999996</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1">
-        <v>0.34955400000000003</v>
+        <v>0.31823700000000005</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1">
-        <v>0.280826</v>
+        <v>0.272443</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1">
-        <v>0.306089</v>
+        <v>0.28048599999999996</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1">
-        <v>0.33112</v>
+        <v>0.26707499999999995</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1">
-        <v>0.181299</v>
+        <v>0.27958900000000003</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1">
-        <v>0.29843600000000003</v>
+        <v>0.246372</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1">
-        <v>0.339477</v>
+        <v>0.304261</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1">
-        <v>0.295289</v>
+        <v>0.265021</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1">
-        <v>0.16047699999999998</v>
+        <v>0.274992</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1">
-        <v>0.37160699999999997</v>
+        <v>0.254331</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1">
-        <v>0.29168299999999997</v>
+        <v>0.28634</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1">
-        <v>0.256613</v>
+        <v>0.24582299999999999</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1">
-        <v>0.6419159999999999</v>
+        <v>0.312602</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1">
-        <v>0.291767</v>
+        <v>0.258683</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1">
-        <v>0.464046</v>
+        <v>0.36739299999999997</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1">
-        <v>0.220323</v>
+        <v>0.26415299999999997</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1">
-        <v>0.352135</v>
+        <v>0.27309300000000003</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1">
-        <v>0.171212</v>
+        <v>0.294899</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1">
-        <v>0.23671999999999999</v>
+        <v>0.26773800000000003</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1">
-        <v>0.28315300000000004</v>
+        <v>0.311188</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1">
-        <v>0.276848</v>
+        <v>0.25404</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1">
-        <v>0.27577199999999996</v>
+        <v>0.262102</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1">
-        <v>0.259577</v>
+        <v>0.271345</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1">
-        <v>0.296437</v>
+        <v>0.308126</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1">
-        <v>0.35346500000000003</v>
+        <v>0.279862</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1">
-        <v>0.33016700000000004</v>
+        <v>0.278101</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1">
-        <v>0.346737</v>
+        <v>0.345537</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1">
-        <v>0.32866999999999996</v>
+        <v>0.30227299999999996</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1">
-        <v>0.36200400000000005</v>
+        <v>0.269658</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1">
-        <v>0.29646300000000003</v>
+        <v>0.286245</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1">
-        <v>0.33183399999999996</v>
+        <v>0.274844</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1">
-        <v>0.29703</v>
+        <v>0.24742299999999998</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1">
-        <v>0.33205</v>
+        <v>0.289285</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1">
-        <v>0.248096</v>
+        <v>0.26308899999999996</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1">
-        <v>0.361767</v>
+        <v>0.24858999999999998</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1">
-        <v>0.311888</v>
+        <v>0.264032</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1">
-        <v>0.413744</v>
+        <v>0.272543</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1">
-        <v>0.236737</v>
+        <v>0.258675</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1">
-        <v>0.509004</v>
+        <v>0.286775</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1">
-        <v>0.247455</v>
+        <v>0.28593</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1">
-        <v>0.26717</v>
+        <v>0.318351</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1">
-        <v>0.476643</v>
+        <v>0.311186</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1">
-        <v>0.354845</v>
+        <v>0.29112499999999997</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1">
-        <v>0.2615</v>
+        <v>0.275773</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1">
-        <v>0.26195</v>
+        <v>0.260433</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1">
-        <v>0.386506</v>
+        <v>0.305391</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1">
-        <v>0.173486</v>
+        <v>0.30255899999999997</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1">
-        <v>0.347918</v>
+        <v>0.261695</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1">
-        <v>0.251307</v>
+        <v>0.23714100000000002</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1">
-        <v>0.304887</v>
+        <v>0.27828400000000003</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1">
-        <v>0.47259199999999996</v>
+        <v>0.316691</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1">
-        <v>0.24814</v>
+        <v>0.29493899999999995</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1">
-        <v>0.505573</v>
+        <v>0.314177</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1">
-        <v>0.333144</v>
+        <v>0.305482</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1">
-        <v>0.54279</v>
+        <v>0.362649</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1">
-        <v>0.29979</v>
+        <v>0.377751</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1">
-        <v>0.25305</v>
+        <v>0.254675</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1">
-        <v>0.476342</v>
+        <v>0.268975</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1">
-        <v>0.7021510000000001</v>
+        <v>0.293219</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1">
-        <v>0.459438</v>
+        <v>0.32001799999999997</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1">
-        <v>0.296355</v>
+        <v>0.288062</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1">
-        <v>0.37872900000000004</v>
+        <v>0.308054</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1">
-        <v>0.293752</v>
+        <v>0.28698599999999996</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1">
-        <v>0.30864800000000003</v>
+        <v>0.260241</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1">
-        <v>0.406825</v>
+        <v>0.30232000000000003</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1">
-        <v>0.3769</v>
+        <v>0.312962</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1">
-        <v>0.27150399999999997</v>
+        <v>0.26132500000000003</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1">
-        <v>0.405308</v>
+        <v>0.27152699999999996</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1">
-        <v>0.295817</v>
+        <v>0.36565600000000004</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1">
-        <v>0.401283</v>
+        <v>0.288222</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1">
-        <v>0.296602</v>
+        <v>0.273416</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1">
-        <v>0.297085</v>
+        <v>0.280835</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1">
-        <v>0.29059799999999997</v>
+        <v>0.292255</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1">
-        <v>0.327806</v>
+        <v>0.25980000000000003</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1">
-        <v>0.323003</v>
+        <v>0.292318</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1">
-        <v>0.322474</v>
+        <v>0.290815</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1">
-        <v>0.27470700000000003</v>
+        <v>0.244028</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1">
-        <v>0.5336919999999999</v>
+        <v>0.261541</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1">
-        <v>0.281692</v>
+        <v>0.292551</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1">
-        <v>1.015085</v>
+        <v>0.306003</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1">
-        <v>0.289157</v>
+        <v>0.330232</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1">
-        <v>0.5809409999999999</v>
+        <v>0.304416</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1">
-        <v>0.26465700000000003</v>
+        <v>0.2877</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1">
-        <v>0.318332</v>
+        <v>0.375336</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1">
-        <v>0.316227</v>
+        <v>0.305707</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1">
-        <v>0.28099199999999996</v>
+        <v>0.303664</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1">
-        <v>0.211076</v>
+        <v>0.273569</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1">
-        <v>0.230399</v>
+        <v>0.291323</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1">
-        <v>0.18857</v>
+        <v>0.312268</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1">
-        <v>0.225328</v>
+        <v>0.25444999999999995</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1">
-        <v>0.185527</v>
+        <v>0.287554</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1">
-        <v>0.20324</v>
+        <v>0.31832</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1">
-        <v>0.501267</v>
+        <v>0.25696300000000005</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1">
-        <v>0.299831</v>
+        <v>0.255412</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1">
-        <v>0.412964</v>
+        <v>0.28409300000000004</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1">
-        <v>0.32399700000000003</v>
+        <v>0.27653900000000003</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1">
-        <v>0.42811299999999997</v>
+        <v>0.27135899999999996</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1">
-        <v>0.266074</v>
+        <v>0.29808599999999996</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1">
-        <v>0.298061</v>
+        <v>0.258722</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1">
-        <v>0.330627</v>
+        <v>0.460689</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1">
-        <v>0.25414</v>
+        <v>0.25995</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1">
-        <v>0.287583</v>
+        <v>0.32817799999999997</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1">
-        <v>0.25027</v>
+        <v>0.379092</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1">
-        <v>0.523671</v>
+        <v>0.33949</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1">
-        <v>0.297267</v>
+        <v>0.343972</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1">
-        <v>0.204502</v>
+        <v>0.296729</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1">
-        <v>0.28700299999999995</v>
+        <v>0.285023</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1">
-        <v>0.294098</v>
+        <v>0.316279</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1">
-        <v>0.372423</v>
+        <v>0.33739</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1">
-        <v>0.171405</v>
+        <v>0.28446299999999997</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1">
-        <v>0.285655</v>
+        <v>0.28205</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1">
-        <v>0.332019</v>
+        <v>0.29387800000000003</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1">
-        <v>0.199729</v>
+        <v>0.286289</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1">
-        <v>0.261184</v>
+        <v>0.263196</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1">
-        <v>0.33053200000000005</v>
+        <v>0.312541</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1">
-        <v>0.24759</v>
+        <v>0.256258</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1">
-        <v>0.391898</v>
+        <v>0.265515</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1">
-        <v>0.24809</v>
+        <v>0.250532</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1">
-        <v>0.337086</v>
+        <v>0.24614999999999998</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1">
-        <v>0.197343</v>
+        <v>0.266133</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1">
-        <v>0.318745</v>
+        <v>0.281003</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1">
-        <v>0.195549</v>
+        <v>0.30223700000000003</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1">
-        <v>0.19658</v>
+        <v>0.274526</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1">
-        <v>0.42345499999999997</v>
+        <v>0.275909</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1">
-        <v>0.294755</v>
+        <v>0.287326</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1">
-        <v>0.242281</v>
+        <v>0.300069</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1">
-        <v>0.402705</v>
+        <v>0.315178</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1">
-        <v>0.365907</v>
+        <v>0.29280300000000004</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1">
-        <v>0.275307</v>
+        <v>0.256662</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1">
-        <v>0.323634</v>
+        <v>0.320784</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1">
-        <v>0.325065</v>
+        <v>0.313976</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1">
-        <v>0.30051999999999995</v>
+        <v>0.313587</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1">
-        <v>0.338887</v>
+        <v>0.258878</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1">
-        <v>0.32138700000000003</v>
+        <v>0.296808</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1">
-        <v>0.305489</v>
+        <v>0.40841500000000003</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1">
-        <v>0.31295</v>
+        <v>0.325028</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1">
-        <v>0.322763</v>
+        <v>0.268228</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1">
-        <v>0.311738</v>
+        <v>0.26466100000000004</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1">
-        <v>0.32338700000000004</v>
+        <v>0.253231</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1">
-        <v>0.30837200000000003</v>
+        <v>0.313243</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1">
-        <v>0.294464</v>
+        <v>0.262175</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1">
-        <v>0.30268500000000004</v>
+        <v>0.327531</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1">
-        <v>0.33740400000000004</v>
+        <v>0.297105</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1">
-        <v>0.28649600000000003</v>
+        <v>0.281976</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1">
-        <v>0.279138</v>
+        <v>0.310819</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1">
-        <v>0.287215</v>
+        <v>0.31372</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1">
-        <v>0.362109</v>
+        <v>0.266101</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1">
-        <v>0.284722</v>
+        <v>0.294708</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1">
-        <v>0.30300299999999997</v>
+        <v>0.286534</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1">
-        <v>0.24610300000000002</v>
+        <v>0.256832</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1">
-        <v>0.26777700000000004</v>
+        <v>0.266023</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1">
-        <v>0.345929</v>
+        <v>0.279414</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1">
-        <v>0.321221</v>
+        <v>0.34366399999999997</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1">
-        <v>0.431519</v>
+        <v>0.24787399999999998</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1">
-        <v>0.40065100000000003</v>
+        <v>0.253437</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1">
-        <v>0.367618</v>
+        <v>0.38831</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1">
-        <v>0.24943699999999996</v>
+        <v>0.269298</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1">
-        <v>0.377744</v>
+        <v>0.2616</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1">
-        <v>0.305745</v>
+        <v>0.297095</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1">
-        <v>0.366901</v>
+        <v>0.353443</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1">
-        <v>0.273388</v>
+        <v>0.338692</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1">
-        <v>0.313918</v>
+        <v>0.275655</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1">
-        <v>0.333383</v>
+        <v>0.35259199999999996</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1">
-        <v>0.28968700000000003</v>
+        <v>0.28951699999999997</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1">
-        <v>0.29580999999999996</v>
+        <v>0.300861</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1">
-        <v>0.345015</v>
+        <v>0.279866</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1">
-        <v>0.24598799999999998</v>
+        <v>0.30878500000000003</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1">
-        <v>0.45403499999999997</v>
+        <v>0.259166</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1">
-        <v>0.24395</v>
+        <v>0.25662599999999997</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1">
-        <v>0.25287699999999996</v>
+        <v>0.336957</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1">
-        <v>0.250002</v>
+        <v>0.317782</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1">
-        <v>0.399362</v>
+        <v>0.300991</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1">
-        <v>0.277857</v>
+        <v>0.30988499999999997</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1">
-        <v>0.362057</v>
+        <v>0.28421</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1">
-        <v>0.275012</v>
+        <v>0.248874</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1">
-        <v>0.286305</v>
+        <v>0.36669300000000005</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1">
-        <v>0.300592</v>
+        <v>0.30576600000000004</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1">
-        <v>0.385631</v>
+        <v>0.36011099999999996</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1">
-        <v>0.243067</v>
+        <v>0.269866</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1">
-        <v>0.319755</v>
+        <v>0.30823100000000003</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1">
-        <v>0.295635</v>
+        <v>0.298256</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1">
-        <v>0.35755</v>
+        <v>0.272617</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1">
-        <v>0.28528000000000003</v>
+        <v>0.27065599999999995</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1">
-        <v>0.42861499999999997</v>
+        <v>0.263082</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1">
-        <v>0.304732</v>
+        <v>0.276148</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1">
-        <v>0.35888000000000003</v>
+        <v>0.299267</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1">
-        <v>0.291473</v>
+        <v>0.27806400000000003</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1">
-        <v>0.417037</v>
+        <v>0.350151</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1">
-        <v>0.301405</v>
+        <v>0.25797800000000004</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1">
-        <v>0.301141</v>
+        <v>0.24589799999999998</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1">
-        <v>0.345163</v>
+        <v>0.305296</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1">
-        <v>0.367865</v>
+        <v>0.285846</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1">
-        <v>0.361249</v>
+        <v>0.255363</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1">
-        <v>0.42244</v>
+        <v>0.28128000000000003</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1">
-        <v>0.305747</v>
+        <v>0.269482</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1">
-        <v>0.28676599999999997</v>
+        <v>0.291099</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1">
-        <v>0.309612</v>
+        <v>0.28164599999999995</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1">
-        <v>0.315134</v>
+        <v>0.30158799999999997</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1">
-        <v>0.3147</v>
+        <v>0.335619</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1">
-        <v>0.315347</v>
+        <v>0.314338</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1">
-        <v>0.311043</v>
+        <v>0.317387</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1">
-        <v>0.293105</v>
+        <v>0.31736</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1">
-        <v>0.31327</v>
+        <v>0.249763</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1">
-        <v>0.294693</v>
+        <v>0.25112</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1">
-        <v>0.401776</v>
+        <v>0.286794</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1">
-        <v>0.337621</v>
+        <v>0.256609</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1">
-        <v>0.261047</v>
+        <v>0.261071</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1">
-        <v>0.41347999999999996</v>
+        <v>0.26232</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1">
-        <v>0.313968</v>
+        <v>0.290881</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1">
-        <v>0.331496</v>
+        <v>0.293387</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1">
-        <v>0.304114</v>
+        <v>0.368623</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1">
-        <v>0.290503</v>
+        <v>0.286329</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1">
-        <v>0.24166300000000002</v>
+        <v>0.254754</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1">
-        <v>0.876409</v>
+        <v>0.32475</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1">
-        <v>0.324448</v>
+        <v>0.36316099999999996</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1">
-        <v>0.38587499999999997</v>
+        <v>0.30101500000000003</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1">
-        <v>0.28198999999999996</v>
+        <v>0.257129</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1">
-        <v>0.260575</v>
+        <v>0.3004</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1">
-        <v>0.30646999999999996</v>
+        <v>0.27425099999999997</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1">
-        <v>0.392067</v>
+        <v>0.266404</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1">
-        <v>0.252977</v>
+        <v>0.283042</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1">
-        <v>0.376886</v>
+        <v>0.291134</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1">
-        <v>0.29355499999999995</v>
+        <v>0.27364700000000003</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1">
-        <v>0.398136</v>
+        <v>0.26259200000000005</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1">
-        <v>0.285647</v>
+        <v>0.305255</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1">
-        <v>0.382285</v>
+        <v>0.274306</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1">
-        <v>0.251723</v>
+        <v>0.308234</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1">
-        <v>0.33057600000000004</v>
+        <v>0.302545</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1">
-        <v>0.258012</v>
+        <v>0.334417</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1">
-        <v>0.368662</v>
+        <v>0.305226</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1">
-        <v>0.235578</v>
+        <v>0.258001</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1">
-        <v>0.40667600000000004</v>
+        <v>0.28147099999999997</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1">
-        <v>0.324065</v>
+        <v>0.278835</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1">
-        <v>0.323973</v>
+        <v>0.25720499999999996</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1">
-        <v>0.254873</v>
+        <v>0.286089</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1">
-        <v>0.41694200000000003</v>
+        <v>0.31022500000000003</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1">
-        <v>0.26881700000000003</v>
+        <v>0.27480499999999997</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1">
-        <v>0.44614200000000004</v>
+        <v>0.257969</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1">
-        <v>0.25018</v>
+        <v>0.345676</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1">
-        <v>0.316889</v>
+        <v>0.279315</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1">
-        <v>0.301954</v>
+        <v>0.410818</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1">
-        <v>0.354594</v>
+        <v>0.337581</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1">
-        <v>0.24412199999999998</v>
+        <v>0.27477399999999996</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1">
-        <v>0.39657499999999996</v>
+        <v>0.298434</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1">
-        <v>0.288632</v>
+        <v>0.30865899999999996</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1">
-        <v>0.35591300000000003</v>
+        <v>0.322052</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1">
-        <v>0.380964</v>
+        <v>0.232898</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1">
-        <v>0.404757</v>
+        <v>0.371997</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1">
-        <v>0.262988</v>
+        <v>0.255901</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1">
-        <v>0.243238</v>
+        <v>0.27921199999999996</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1">
-        <v>0.35272</v>
+        <v>0.26600799999999997</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1">
-        <v>0.295064</v>
+        <v>0.305021</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1">
-        <v>0.148079</v>
+        <v>0.35198100000000004</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1">
-        <v>0.406609</v>
+        <v>0.27674600000000005</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1">
-        <v>0.261623</v>
+        <v>0.279822</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1">
-        <v>0.241215</v>
+        <v>0.285201</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1">
-        <v>0.339508</v>
+        <v>0.270382</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1">
-        <v>0.30998400000000004</v>
+        <v>0.319988</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1">
-        <v>0.302459</v>
+        <v>0.258428</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1">
-        <v>0.36078299999999996</v>
+        <v>0.30446500000000004</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1">
-        <v>0.37701500000000004</v>
+        <v>0.27960799999999997</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1">
-        <v>0.360219</v>
+        <v>0.321813</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1">
-        <v>0.305317</v>
+        <v>0.258484</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1">
-        <v>0.451254</v>
+        <v>0.26651600000000003</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1">
-        <v>0.27207000000000003</v>
+        <v>0.300343</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1">
-        <v>0.468806</v>
+        <v>0.25086800000000004</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1">
-        <v>0.282047</v>
+        <v>0.309834</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1">
-        <v>0.40981999999999996</v>
+        <v>0.320902</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1">
-        <v>0.26147699999999996</v>
+        <v>0.24844599999999997</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1">
-        <v>0.294985</v>
+        <v>0.286869</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1">
-        <v>0.259847</v>
+        <v>0.309182</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1">
-        <v>0.26132</v>
+        <v>0.26803</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1">
-        <v>0.414981</v>
+        <v>0.290612</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1">
-        <v>0.248317</v>
+        <v>0.267885</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1">
-        <v>0.391532</v>
+        <v>0.26180000000000003</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1">
-        <v>0.30660000000000004</v>
+        <v>0.27177100000000004</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1">
-        <v>0.331832</v>
+        <v>0.25909400000000005</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1">
-        <v>0.26985699999999996</v>
+        <v>0.361136</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1">
-        <v>0.360794</v>
+        <v>0.312874</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1">
-        <v>0.26498</v>
+        <v>0.26772900000000005</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1">
-        <v>0.426733</v>
+        <v>0.300895</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1">
-        <v>0.250853</v>
+        <v>0.369849</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1">
-        <v>0.419484</v>
+        <v>0.292001</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1">
-        <v>0.246698</v>
+        <v>0.32944799999999996</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1">
-        <v>0.415951</v>
+        <v>0.278505</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1">
-        <v>0.254807</v>
+        <v>0.31061</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1">
-        <v>0.35249</v>
+        <v>0.288372</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1">
-        <v>0.250175</v>
+        <v>0.437539</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1">
-        <v>0.44761999999999996</v>
+        <v>0.278831</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1">
-        <v>0.259145</v>
+        <v>0.25615499999999997</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1">
-        <v>0.445972</v>
+        <v>0.288298</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1">
-        <v>0.363905</v>
+        <v>0.307355</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1">
-        <v>0.383752</v>
+        <v>0.36044400000000004</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1">
-        <v>0.28505199999999997</v>
+        <v>0.273609</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1">
-        <v>0.393914</v>
+        <v>0.316214</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1">
-        <v>0.2482</v>
+        <v>0.283996</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1">
-        <v>0.41656899999999997</v>
+        <v>0.27992799999999995</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1">
-        <v>0.26114200000000004</v>
+        <v>0.27472199999999997</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1">
-        <v>0.294492</v>
+        <v>0.317657</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1">
-        <v>0.38438</v>
+        <v>0.295409</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1">
-        <v>0.309145</v>
+        <v>0.289483</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1">
-        <v>0.267885</v>
+        <v>0.25181200000000004</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1">
-        <v>0.385501</v>
+        <v>0.32112999999999997</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1">
-        <v>0.411495</v>
+        <v>0.259106</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1">
-        <v>0.323455</v>
+        <v>0.313531</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1">
-        <v>0.319778</v>
+        <v>0.26144</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1">
-        <v>0.28564999999999996</v>
+        <v>0.316674</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1">
-        <v>0.293415</v>
+        <v>0.312154</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1">
-        <v>0.288795</v>
+        <v>0.263541</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1">
-        <v>0.38975000000000004</v>
+        <v>0.301829</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1">
-        <v>0.27727399999999996</v>
+        <v>0.249056</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1">
-        <v>0.38695599999999997</v>
+        <v>0.285031</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1">
-        <v>0.335417</v>
+        <v>0.309882</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1">
-        <v>0.400905</v>
+        <v>0.290947</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1">
-        <v>0.295385</v>
+        <v>0.30134500000000003</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1">
-        <v>0.36726800000000004</v>
+        <v>0.23172500000000001</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1">
-        <v>0.308635</v>
+        <v>0.29019</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1">
-        <v>0.9203020000000001</v>
+        <v>0.276831</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1">
-        <v>0.206544</v>
+        <v>0.270794</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1">
-        <v>0.191159</v>
+        <v>0.319647</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1">
-        <v>1.711063</v>
+        <v>0.667718</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1">
-        <v>0.218851</v>
+        <v>0.275825</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1">
-        <v>0.158059</v>
+        <v>0.305168</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1">
-        <v>0.5858709999999999</v>
+        <v>0.272936</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1">
-        <v>0.18193399999999998</v>
+        <v>0.258393</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1">
-        <v>0.325002</v>
+        <v>0.28121</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1">
-        <v>0.556237</v>
+        <v>0.291166</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1">
-        <v>0.24235</v>
+        <v>0.259533</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1">
-        <v>0.642218</v>
+        <v>0.259054</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1">
-        <v>0.3079</v>
+        <v>0.36058500000000004</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1">
-        <v>0.316552</v>
+        <v>0.325052</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1">
-        <v>0.27183799999999997</v>
+        <v>0.283582</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1">
-        <v>0.257048</v>
+        <v>0.274948</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1">
-        <v>0.285474</v>
+        <v>0.27040400000000003</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1">
-        <v>0.293302</v>
+        <v>0.270615</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1">
-        <v>0.28265799999999996</v>
+        <v>0.260343</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1">
-        <v>0.41446099999999997</v>
+        <v>0.29093199999999997</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1">
-        <v>0.298446</v>
+        <v>0.260153</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1">
-        <v>0.287043</v>
+        <v>0.291095</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1">
-        <v>0.245083</v>
+        <v>0.264717</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1">
-        <v>0.313425</v>
+        <v>0.28921600000000003</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1">
-        <v>0.29985500000000004</v>
+        <v>0.29324</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1">
-        <v>0.25658000000000003</v>
+        <v>0.296237</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1">
-        <v>0.449281</v>
+        <v>0.258618</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1">
-        <v>0.259817</v>
+        <v>0.34066100000000005</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1">
-        <v>0.5604610000000001</v>
+        <v>0.282742</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1">
-        <v>0.280169</v>
+        <v>0.287849</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1">
-        <v>0.284385</v>
+        <v>0.341372</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1">
-        <v>0.355157</v>
+        <v>0.285331</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1">
-        <v>0.31976299999999996</v>
+        <v>0.250541</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1">
-        <v>0.29927000000000004</v>
+        <v>0.260163</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1">
-        <v>0.302292</v>
+        <v>0.359305</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1">
-        <v>0.36904400000000004</v>
+        <v>0.29801900000000003</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1">
-        <v>0.290257</v>
+        <v>0.255409</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1">
-        <v>0.34618099999999996</v>
+        <v>0.367974</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1">
-        <v>0.329717</v>
+        <v>0.25042499999999995</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1">
-        <v>0.315656</v>
+        <v>0.240945</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1">
-        <v>0.26927500000000004</v>
+        <v>0.258315</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1">
-        <v>0.314633</v>
+        <v>0.26487700000000003</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1">
-        <v>0.29608100000000004</v>
+        <v>0.29363399999999995</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1">
-        <v>0.27577199999999996</v>
+        <v>0.6813480000000001</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1">
-        <v>0.34648300000000004</v>
+        <v>0.26153</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1">
-        <v>0.31856</v>
+        <v>0.371354</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1">
-        <v>0.33654300000000004</v>
+        <v>0.297884</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" s="1">
-        <v>0.320381</v>
+        <v>0.283877</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" s="1">
-        <v>0.306043</v>
+        <v>0.283386</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" s="1">
-        <v>0.302929</v>
+        <v>0.289557</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" s="1">
-        <v>0.297098</v>
+        <v>0.28470999999999996</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" s="1">
-        <v>0.341431</v>
+        <v>0.327592</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" s="1">
-        <v>0.25305500000000003</v>
+        <v>0.368779</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" s="1">
-        <v>0.29654600000000003</v>
+        <v>0.288415</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" s="1">
-        <v>0.279634</v>
+        <v>0.313753</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" s="1">
-        <v>0.29630500000000004</v>
+        <v>0.30635</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" s="1">
-        <v>0.363296</v>
+        <v>0.326549</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" s="1">
-        <v>0.278951</v>
+        <v>0.38935400000000003</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" s="1">
-        <v>0.33381099999999997</v>
+        <v>0.268963</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" s="1">
-        <v>0.331565</v>
+        <v>0.28562</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" s="1">
-        <v>0.379692</v>
+        <v>0.28212000000000004</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" s="1">
-        <v>0.321148</v>
+        <v>0.25850100000000004</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" s="1">
-        <v>0.34007699999999996</v>
+        <v>0.288564</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" s="1">
-        <v>0.336957</v>
+        <v>0.301106</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" s="1">
-        <v>0.30451700000000004</v>
+        <v>0.29904</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" s="1">
-        <v>0.307652</v>
+        <v>0.291353</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" s="1">
-        <v>0.343696</v>
+        <v>0.230015</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" s="1">
-        <v>0.302095</v>
+        <v>0.258261</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" s="1">
-        <v>0.353727</v>
+        <v>0.257072</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" s="1">
-        <v>0.289835</v>
+        <v>0.298043</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" s="1">
-        <v>0.28306000000000003</v>
+        <v>0.300329</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" s="1">
-        <v>0.33915300000000004</v>
+        <v>0.22807</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" s="1">
-        <v>0.341245</v>
+        <v>0.312049</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" s="1">
-        <v>0.27144</v>
+        <v>0.30103399999999997</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" s="1">
-        <v>0.30711099999999997</v>
+        <v>0.30457999999999996</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" s="1">
-        <v>0.309653</v>
+        <v>0.37255699999999997</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" s="1">
-        <v>0.295529</v>
+        <v>0.29678400000000005</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" s="1">
-        <v>0.29682899999999995</v>
+        <v>0.40891700000000003</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" s="1">
-        <v>0.295815</v>
+        <v>0.258634</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" s="1">
-        <v>0.321919</v>
+        <v>0.25483199999999995</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" s="1">
-        <v>0.286154</v>
+        <v>0.280779</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" s="1">
-        <v>0.329461</v>
+        <v>0.253226</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" s="1">
-        <v>0.536654</v>
+        <v>0.348572</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" s="1">
-        <v>0.283228</v>
+        <v>0.315528</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" s="1">
-        <v>0.382908</v>
+        <v>0.33593300000000004</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" s="1">
-        <v>0.317385</v>
+        <v>0.26801499999999995</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" s="1">
-        <v>0.338003</v>
+        <v>0.343105</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" s="1">
-        <v>0.307938</v>
+        <v>0.285783</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" s="1">
-        <v>0.309788</v>
+        <v>0.262287</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" s="1">
-        <v>0.436023</v>
+        <v>0.284528</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" s="1">
-        <v>0.29746900000000004</v>
+        <v>0.27284899999999995</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" s="1">
-        <v>0.35747399999999996</v>
+        <v>0.264136</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" s="1">
-        <v>0.303716</v>
+        <v>0.363237</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" s="1">
-        <v>0.300566</v>
+        <v>0.28017899999999996</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" s="1">
-        <v>0.297389</v>
+        <v>0.27983</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" s="1">
-        <v>0.306572</v>
+        <v>0.25949700000000003</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" s="1">
-        <v>0.281161</v>
+        <v>0.31218100000000004</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" s="1">
-        <v>0.298736</v>
+        <v>0.322218</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" s="1">
-        <v>0.329533</v>
+        <v>0.307006</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" s="1">
-        <v>0.281723</v>
+        <v>0.336027</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" s="1">
-        <v>0.294114</v>
+        <v>0.26957400000000004</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" s="1">
-        <v>0.296304</v>
+        <v>0.294517</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" s="1">
-        <v>0.315803</v>
+        <v>0.255633</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" s="1">
-        <v>0.296586</v>
+        <v>0.28797300000000003</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" s="1">
-        <v>0.311421</v>
+        <v>0.303278</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" s="1">
-        <v>0.40974499999999997</v>
+        <v>0.254738</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" s="1">
-        <v>0.289437</v>
+        <v>0.31873999999999997</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" s="1">
-        <v>0.297508</v>
+        <v>0.252148</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" s="1">
-        <v>0.28883000000000003</v>
+        <v>0.302458</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" s="1">
-        <v>0.399604</v>
+        <v>0.27329699999999996</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" s="1">
-        <v>0.279501</v>
+        <v>0.264592</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" s="1">
-        <v>0.29600299999999996</v>
+        <v>0.323175</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" s="1">
-        <v>0.318378</v>
+        <v>0.258008</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" s="1">
-        <v>0.296904</v>
+        <v>0.262181</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" s="1">
-        <v>0.294947</v>
+        <v>0.267366</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" s="1">
-        <v>0.302823</v>
+        <v>0.321148</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" s="1">
-        <v>0.33345</v>
+        <v>0.271202</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" s="1">
-        <v>0.34858</v>
+        <v>0.30650099999999997</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" s="1">
-        <v>0.32551599999999997</v>
+        <v>0.324683</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" s="1">
-        <v>0.295938</v>
+        <v>0.252787</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" s="1">
-        <v>0.360379</v>
+        <v>0.273525</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" s="1">
-        <v>0.29574100000000003</v>
+        <v>0.281237</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" s="1">
-        <v>0.364065</v>
+        <v>0.531948</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" s="1">
-        <v>0.334565</v>
+        <v>0.314368</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" s="1">
-        <v>0.272323</v>
+        <v>0.273431</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" s="1">
-        <v>0.30449600000000004</v>
+        <v>0.297809</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" s="1">
-        <v>0.475229</v>
+        <v>0.288648</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" s="1">
-        <v>0.31373799999999996</v>
+        <v>0.245287</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" s="1">
-        <v>0.387428</v>
+        <v>0.258889</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" s="1">
-        <v>0.29634699999999997</v>
+        <v>0.286792</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" s="1">
-        <v>0.297957</v>
+        <v>0.304805</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" s="1">
-        <v>0.300132</v>
+        <v>0.318075</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" s="1">
-        <v>0.31840999999999997</v>
+        <v>0.36797199999999997</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" s="1">
-        <v>0.336269</v>
+        <v>0.286333</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" s="1">
-        <v>0.319234</v>
+        <v>0.25786</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" s="1">
-        <v>0.30669300000000005</v>
+        <v>0.268294</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" s="1">
-        <v>0.305077</v>
+        <v>0.271999</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" s="1">
-        <v>0.241947</v>
+        <v>0.264179</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" s="1">
-        <v>0.274576</v>
+        <v>0.27687300000000004</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" s="1">
-        <v>0.349985</v>
+        <v>0.300159</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" s="1">
-        <v>0.299794</v>
+        <v>0.29176799999999997</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" s="1">
-        <v>0.350967</v>
+        <v>0.251131</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" s="1">
-        <v>0.32609899999999997</v>
+        <v>0.26744399999999996</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" s="1">
-        <v>0.27125</v>
+        <v>0.29503199999999996</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" s="1">
-        <v>0.33073199999999997</v>
+        <v>0.26700999999999997</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" s="1">
-        <v>0.257643</v>
+        <v>0.284391</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" s="1">
-        <v>0.442998</v>
+        <v>0.375747</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" s="1">
-        <v>0.27508</v>
+        <v>0.258561</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" s="1">
-        <v>0.31307999999999997</v>
+        <v>0.445022</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" s="1">
-        <v>0.329017</v>
+        <v>0.253394</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" s="1">
-        <v>0.28628</v>
+        <v>0.296167</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" s="1">
-        <v>0.297664</v>
+        <v>0.299157</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" s="1">
-        <v>0.167653</v>
+        <v>0.270711</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" s="1">
-        <v>0.289477</v>
+        <v>0.274573</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" s="1">
-        <v>0.378722</v>
+        <v>0.259662</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" s="1">
-        <v>0.28962699999999997</v>
+        <v>0.279518</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" s="1">
-        <v>0.316877</v>
+        <v>0.30809400000000003</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" s="1">
-        <v>0.30662799999999996</v>
+        <v>0.26712600000000003</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" s="1">
-        <v>0.336858</v>
+        <v>0.259915</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" s="1">
-        <v>0.30155299999999996</v>
+        <v>0.316809</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" s="1">
-        <v>0.29500000000000004</v>
+        <v>0.294572</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" s="1">
-        <v>0.276745</v>
+        <v>0.252789</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" s="1">
-        <v>0.270521</v>
+        <v>0.295077</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" s="1">
-        <v>0.310423</v>
+        <v>0.283156</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" s="1">
-        <v>0.32908299999999996</v>
+        <v>0.374628</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" s="1">
-        <v>0.297048</v>
+        <v>0.261664</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" s="1">
-        <v>0.27162600000000003</v>
+        <v>0.364451</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" s="1">
-        <v>0.30784900000000004</v>
+        <v>0.344597</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" s="1">
-        <v>0.255465</v>
+        <v>0.39374400000000004</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" s="1">
-        <v>0.353258</v>
+        <v>0.262905</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" s="1">
-        <v>0.295796</v>
+        <v>0.261025</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" s="1">
-        <v>0.30184500000000003</v>
+        <v>0.307496</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" s="1">
-        <v>0.313892</v>
+        <v>0.313255</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" s="1">
-        <v>0.326368</v>
+        <v>0.180559</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" s="1">
-        <v>0.32873199999999997</v>
+        <v>0.341757</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" s="1">
-        <v>0.293215</v>
+        <v>0.433406</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" s="1">
-        <v>0.238484</v>
+        <v>0.271886</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" s="1">
-        <v>0.28081999999999996</v>
+        <v>0.296495</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" s="1">
-        <v>0.291451</v>
+        <v>0.295422</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" s="1">
-        <v>0.375797</v>
+        <v>0.240843</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" s="1">
-        <v>0.308217</v>
+        <v>0.341359</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" s="1">
-        <v>0.307479</v>
+        <v>0.279554</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" s="1">
-        <v>0.344586</v>
+        <v>0.30803800000000003</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" s="1">
-        <v>0.336745</v>
+        <v>0.24711999999999998</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" s="1">
-        <v>0.290189</v>
+        <v>0.323829</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" s="1">
-        <v>0.41121199999999997</v>
+        <v>0.27886</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" s="1">
-        <v>0.32871700000000004</v>
+        <v>0.27809</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" s="1">
-        <v>0.295348</v>
+        <v>0.275182</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" s="1">
-        <v>0.29549699999999995</v>
+        <v>0.293237</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" s="1">
-        <v>0.322141</v>
+        <v>0.257174</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" s="1">
-        <v>0.268146</v>
+        <v>0.330714</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" s="1">
-        <v>0.29530799999999996</v>
+        <v>0.266157</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" s="1">
-        <v>0.291843</v>
+        <v>0.281015</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" s="1">
-        <v>0.400314</v>
+        <v>0.248659</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" s="1">
-        <v>0.288223</v>
+        <v>0.288428</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" s="1">
-        <v>0.343009</v>
+        <v>0.285003</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" s="1">
-        <v>0.327524</v>
+        <v>0.381731</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" s="1">
-        <v>0.273032</v>
+        <v>0.24830099999999997</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" s="1">
-        <v>0.32132</v>
+        <v>0.339934</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" s="1">
-        <v>0.436212</v>
+        <v>0.27939</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" s="1">
-        <v>0.29458799999999996</v>
+        <v>0.17611100000000002</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" s="1">
-        <v>0.271648</v>
+        <v>0.25508200000000003</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" s="1">
-        <v>0.18013400000000002</v>
+        <v>0.27256600000000003</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" s="1">
-        <v>0.173043</v>
+        <v>0.296106</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" s="1">
-        <v>0.316837</v>
+        <v>0.314267</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" s="1">
-        <v>0.319128</v>
+        <v>0.26413800000000004</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" s="1">
-        <v>0.6604789999999999</v>
+        <v>0.260963</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" s="1">
-        <v>0.314352</v>
+        <v>0.26091800000000004</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" s="1">
-        <v>0.331884</v>
+        <v>0.311692</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1">
-        <v>0.322426</v>
+        <v>0.268483</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" s="1">
-        <v>0.33259700000000003</v>
+        <v>0.26376299999999997</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" s="1">
-        <v>0.286592</v>
+        <v>0.26807000000000003</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" s="1">
-        <v>0.302043</v>
+        <v>0.169204</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" s="1">
-        <v>0.338923</v>
+        <v>0.288674</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" s="1">
-        <v>0.298685</v>
+        <v>0.259185</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" s="1">
-        <v>0.34530900000000003</v>
+        <v>0.295103</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" s="1">
-        <v>0.328434</v>
+        <v>0.304803</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" s="1">
-        <v>0.427594</v>
+        <v>0.25756999999999997</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" s="1">
-        <v>0.306006</v>
+        <v>0.390052</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" s="1">
-        <v>0.311336</v>
+        <v>0.249846</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" s="1">
-        <v>0.269212</v>
+        <v>0.299718</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" s="1">
-        <v>0.327228</v>
+        <v>0.331215</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" s="1">
-        <v>0.340774</v>
+        <v>0.321474</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" s="1">
-        <v>0.298337</v>
+        <v>0.34349599999999997</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" s="1">
-        <v>0.296594</v>
+        <v>0.25211500000000003</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" s="1">
-        <v>0.28656</v>
+        <v>0.249187</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" s="1">
-        <v>0.277821</v>
+        <v>0.267654</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" s="1">
-        <v>0.271246</v>
+        <v>0.280443</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" s="1">
-        <v>0.31408</v>
+        <v>0.298914</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" s="1">
-        <v>0.268955</v>
+        <v>0.272004</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" s="1">
-        <v>0.303823</v>
+        <v>0.296025</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" s="1">
-        <v>0.301305</v>
+        <v>0.251751</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" s="1">
-        <v>0.280084</v>
+        <v>0.274978</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" s="1">
-        <v>0.311981</v>
+        <v>0.30804</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" s="1">
-        <v>0.334629</v>
+        <v>0.304569</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" s="1">
-        <v>0.321837</v>
+        <v>0.310776</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" s="1">
-        <v>0.267025</v>
+        <v>0.29356899999999997</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" s="1">
-        <v>0.382797</v>
+        <v>0.6313</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" s="1">
-        <v>0.297288</v>
+        <v>0.287594</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" s="1">
-        <v>0.308842</v>
+        <v>0.288262</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" s="1">
-        <v>0.38045199999999996</v>
+        <v>0.37077</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" s="1">
-        <v>0.31611900000000004</v>
+        <v>0.30132</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" s="1">
-        <v>0.3262</v>
+        <v>0.189533</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" s="1">
-        <v>0.354535</v>
+        <v>0.266826</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" s="1">
-        <v>0.310207</v>
+        <v>0.368809</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" s="1">
-        <v>0.276573</v>
+        <v>0.319964</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" s="1">
-        <v>0.384401</v>
+        <v>0.279564</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" s="1">
-        <v>0.32803</v>
+        <v>0.251782</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" s="1">
-        <v>0.33604</v>
+        <v>0.291111</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" s="1">
-        <v>0.25816100000000003</v>
+        <v>0.269897</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" s="1">
-        <v>0.356693</v>
+        <v>0.270069</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" s="1">
-        <v>0.27176300000000003</v>
+        <v>0.30956</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" s="1">
-        <v>0.291166</v>
+        <v>0.259483</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" s="1">
-        <v>0.34156600000000004</v>
+        <v>0.29217499999999996</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" s="1">
-        <v>0.284546</v>
+        <v>0.23756</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" s="1">
-        <v>0.299723</v>
+        <v>0.280354</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" s="1">
-        <v>0.3968</v>
+        <v>0.26590400000000003</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" s="1">
-        <v>0.276752</v>
+        <v>0.29351499999999997</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" s="1">
-        <v>0.382185</v>
+        <v>0.279218</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" s="1">
-        <v>0.300194</v>
+        <v>0.287284</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" s="1">
-        <v>0.283462</v>
+        <v>0.25992499999999996</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" s="1">
-        <v>0.323129</v>
+        <v>0.233766</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" s="1">
-        <v>0.339661</v>
+        <v>0.283903</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" s="1">
-        <v>0.294076</v>
+        <v>0.29388899999999996</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" s="1">
-        <v>0.29870199999999997</v>
+        <v>0.270794</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" s="1">
-        <v>0.301164</v>
+        <v>0.25700799999999996</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" s="1">
-        <v>0.290543</v>
+        <v>0.25442</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" s="1">
-        <v>0.377062</v>
+        <v>0.268044</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" s="1">
-        <v>0.333932</v>
+        <v>0.26127</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" s="1">
-        <v>0.293818</v>
+        <v>0.297071</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" s="1">
-        <v>0.367877</v>
+        <v>0.296438</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" s="1">
-        <v>0.292956</v>
+        <v>0.288628</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" s="1">
-        <v>0.30972299999999997</v>
+        <v>0.298107</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" s="1">
-        <v>0.279444</v>
+        <v>0.266185</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" s="1">
-        <v>0.35262899999999997</v>
+        <v>0.27104</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" s="1">
-        <v>0.305398</v>
+        <v>0.292763</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" s="1">
-        <v>0.290269</v>
+        <v>0.26585299999999995</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" s="1">
-        <v>0.290023</v>
+        <v>0.287542</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" s="1">
-        <v>0.296516</v>
+        <v>0.274943</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" s="1">
-        <v>0.33477700000000005</v>
+        <v>0.265034</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" s="1">
-        <v>0.27052800000000005</v>
+        <v>0.285146</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" s="1">
-        <v>0.48473700000000003</v>
+        <v>0.281057</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" s="1">
-        <v>0.296637</v>
+        <v>0.30134</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" s="1">
-        <v>0.327052</v>
+        <v>0.31394</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" s="1">
-        <v>0.336895</v>
+        <v>0.25043</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" s="1">
-        <v>0.307726</v>
+        <v>0.24157</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" s="1">
-        <v>0.304811</v>
+        <v>0.28175900000000004</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" s="1">
-        <v>0.238944</v>
+        <v>0.271432</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" s="1">
-        <v>0.417243</v>
+        <v>0.31221299999999996</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" s="1">
-        <v>0.30340100000000003</v>
+        <v>0.246915</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" s="1">
-        <v>0.28464</v>
+        <v>0.391511</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" s="1">
-        <v>0.353659</v>
+        <v>0.253314</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" s="1">
-        <v>0.290702</v>
+        <v>0.348833</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" s="1">
-        <v>0.27919099999999997</v>
+        <v>0.302391</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" s="1">
-        <v>0.306259</v>
+        <v>0.291626</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" s="1">
-        <v>0.29044200000000003</v>
+        <v>0.266691</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" s="1">
-        <v>0.281277</v>
+        <v>0.34593599999999997</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" s="1">
-        <v>0.289842</v>
+        <v>0.296256</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" s="1">
-        <v>0.292107</v>
+        <v>0.343809</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" s="1">
-        <v>0.272237</v>
+        <v>0.286134</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" s="1">
-        <v>0.311256</v>
+        <v>0.276547</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" s="1">
-        <v>0.272475</v>
+        <v>0.27502499999999996</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" s="1">
-        <v>0.44138</v>
+        <v>0.191777</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" s="1">
-        <v>0.35656</v>
+        <v>0.281543</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" s="1">
-        <v>0.293231</v>
+        <v>0.32448299999999997</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" s="1">
-        <v>0.298992</v>
+        <v>0.273161</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" s="1">
-        <v>0.271364</v>
+        <v>0.253166</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" s="1">
-        <v>0.404006</v>
+        <v>0.876822</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" s="1">
-        <v>0.264402</v>
+        <v>0.246089</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" s="1">
-        <v>0.29220999999999997</v>
+        <v>0.29526800000000003</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" s="1">
-        <v>0.357987</v>
+        <v>0.253966</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" s="1">
-        <v>0.355367</v>
+        <v>0.314034</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" s="1">
-        <v>0.296449</v>
+        <v>0.28181</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" s="1">
-        <v>0.335931</v>
+        <v>0.30494899999999997</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" s="1">
-        <v>0.311496</v>
+        <v>0.277189</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" s="1">
-        <v>0.353379</v>
+        <v>0.261844</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" s="1">
-        <v>0.300777</v>
+        <v>0.295141</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" s="1">
-        <v>0.290906</v>
+        <v>0.302536</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" s="1">
-        <v>0.351746</v>
+        <v>0.371797</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" s="1">
-        <v>1.080676</v>
+        <v>0.256566</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" s="1">
-        <v>0.30200099999999996</v>
+        <v>0.314791</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" s="1">
-        <v>0.309579</v>
+        <v>0.28872400000000004</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" s="1">
-        <v>0.3303</v>
+        <v>0.25236699999999995</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" s="1">
-        <v>0.35875799999999997</v>
+        <v>0.25656399999999996</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" s="1">
-        <v>0.31359299999999996</v>
+        <v>0.30516</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" s="1">
-        <v>0.281586</v>
+        <v>0.400052</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" s="1">
-        <v>0.358143</v>
+        <v>0.26222700000000004</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" s="1">
-        <v>0.285626</v>
+        <v>0.30040500000000003</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" s="1">
-        <v>0.319245</v>
+        <v>0.28027599999999997</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" s="1">
-        <v>0.270011</v>
+        <v>0.270478</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" s="1">
-        <v>0.28953399999999996</v>
+        <v>0.273403</v>
       </c>
     </row>
     <row r="1002">
       <c r="A1002" s="1">
-        <v>0.308792</v>
+        <v>0.367444</v>
       </c>
     </row>
   </sheetData>
